--- a/categories.xlsx
+++ b/categories.xlsx
@@ -1,38 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old\Job\Documents\seller_bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4A839C-5A7A-4F2D-9E2A-9625C0CF94A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1965" yWindow="2580" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Білизна</t>
+  </si>
+  <si>
+    <t>https://t.me/seller_channel_haha/187</t>
+  </si>
+  <si>
+    <t>Взуття чоловіче</t>
+  </si>
+  <si>
+    <t>https://t.me/seller_channel_haha/188</t>
+  </si>
+  <si>
+    <t>Дитячий одяг</t>
+  </si>
+  <si>
+    <t>https://t.me/seller_channel_haha/189</t>
+  </si>
+  <si>
+    <t>Жіночий одяг</t>
+  </si>
+  <si>
+    <t>https://t.me/seller_channel_haha/190</t>
+  </si>
+  <si>
+    <t>Кросівки</t>
+  </si>
+  <si>
+    <t>https://t.me/seller_channel_haha/191</t>
+  </si>
+  <si>
+    <t>Спортивний одяг</t>
+  </si>
+  <si>
+    <t>https://t.me/seller_channel_haha/192</t>
+  </si>
+  <si>
+    <t>Сумки</t>
+  </si>
+  <si>
+    <t>https://t.me/seller_channel_haha/193</t>
+  </si>
+  <si>
+    <t>Чоловічий одяг</t>
+  </si>
+  <si>
+    <t>https://t.me/seller_channel_haha/194</t>
+  </si>
+  <si>
+    <t>текстиль</t>
+  </si>
+  <si>
+    <t>https://t.me/seller_channel_haha/186</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,84 +121,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,132 +405,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="18.5703125" customWidth="1" style="2" min="1" max="1"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Білизна</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/187</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Взуття чоловіче</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/188</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Дитячий одяг</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/189</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Жіночий одяг</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/190</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Кросівки</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/191</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Спортивний одяг</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/192</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Сумки</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/193</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Чоловічий одяг</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/194</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>текстиль</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/186</t>
-        </is>
-      </c>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/categories.xlsx
+++ b/categories.xlsx
@@ -1,102 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old\Job\Documents\seller_bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4A839C-5A7A-4F2D-9E2A-9625C0CF94A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2580" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Білизна</t>
-  </si>
-  <si>
-    <t>https://t.me/seller_channel_haha/187</t>
-  </si>
-  <si>
-    <t>Взуття чоловіче</t>
-  </si>
-  <si>
-    <t>https://t.me/seller_channel_haha/188</t>
-  </si>
-  <si>
-    <t>Дитячий одяг</t>
-  </si>
-  <si>
-    <t>https://t.me/seller_channel_haha/189</t>
-  </si>
-  <si>
-    <t>Жіночий одяг</t>
-  </si>
-  <si>
-    <t>https://t.me/seller_channel_haha/190</t>
-  </si>
-  <si>
-    <t>Кросівки</t>
-  </si>
-  <si>
-    <t>https://t.me/seller_channel_haha/191</t>
-  </si>
-  <si>
-    <t>Спортивний одяг</t>
-  </si>
-  <si>
-    <t>https://t.me/seller_channel_haha/192</t>
-  </si>
-  <si>
-    <t>Сумки</t>
-  </si>
-  <si>
-    <t>https://t.me/seller_channel_haha/193</t>
-  </si>
-  <si>
-    <t>Чоловічий одяг</t>
-  </si>
-  <si>
-    <t>https://t.me/seller_channel_haha/194</t>
-  </si>
-  <si>
-    <t>текстиль</t>
-  </si>
-  <si>
-    <t>https://t.me/seller_channel_haha/186</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,25 +57,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,104 +400,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
+    <col width="18.5703125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Білизна</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>https://t.me/seller_channel_haha/297</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Взуття чоловіче</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://t.me/seller_channel_haha/298</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Дитячий одяг</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://t.me/seller_channel_haha/299</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Жіночий одяг</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Кросівки</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Спортивний одяг</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Чоловічий одяг</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>текстиль</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Категорії</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://t.me/seller_channel_haha/300</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>mama</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/categories.xlsx
+++ b/categories.xlsx
@@ -1,38 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old\Job\Documents\seller_bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4491EDBE-9B53-4E01-B44A-8CE24323346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Білизна</t>
+  </si>
+  <si>
+    <t>Взуття чоловіче</t>
+  </si>
+  <si>
+    <t>Дитячий одяг</t>
+  </si>
+  <si>
+    <t>Жіночий одяг</t>
+  </si>
+  <si>
+    <t>Кросівки</t>
+  </si>
+  <si>
+    <t>Спортивний одяг</t>
+  </si>
+  <si>
+    <t>Сумки</t>
+  </si>
+  <si>
+    <t>Чоловічий одяг</t>
+  </si>
+  <si>
+    <t>текстиль</t>
+  </si>
+  <si>
+    <t>Категорії</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,84 +97,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,121 +381,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="18.5703125" customWidth="1" style="2" min="1" max="1"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Білизна</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/297</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Взуття чоловіче</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/298</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Дитячий одяг</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/299</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Жіночий одяг</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Кросівки</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Спортивний одяг</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Сумки</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Чоловічий одяг</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>текстиль</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Категорії</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://t.me/seller_channel_haha/300</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>mama</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/categories.xlsx
+++ b/categories.xlsx
@@ -1,78 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old\Job\Documents\seller_bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4491EDBE-9B53-4E01-B44A-8CE24323346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Білизна</t>
-  </si>
-  <si>
-    <t>Взуття чоловіче</t>
-  </si>
-  <si>
-    <t>Дитячий одяг</t>
-  </si>
-  <si>
-    <t>Жіночий одяг</t>
-  </si>
-  <si>
-    <t>Кросівки</t>
-  </si>
-  <si>
-    <t>Спортивний одяг</t>
-  </si>
-  <si>
-    <t>Сумки</t>
-  </si>
-  <si>
-    <t>Чоловічий одяг</t>
-  </si>
-  <si>
-    <t>текстиль</t>
-  </si>
-  <si>
-    <t>Категорії</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,25 +57,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -381,70 +400,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
+    <col width="18.5703125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Білизна</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Взуття чоловіче</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Дитячий одяг</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Жіночий одяг</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Кросівки</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Спортивний одяг</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/32</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Чоловічий одяг</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/34</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>текстиль</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/35</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Категорії</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/36</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/categories.xlsx
+++ b/categories.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1395" yWindow="945" windowWidth="14400" windowHeight="10755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/28</t>
+          <t>https://t.me/Turk_0pt/109</t>
         </is>
       </c>
     </row>
@@ -436,7 +436,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/29</t>
+          <t>https://t.me/Turk_0pt/110</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/30</t>
+          <t>https://t.me/Turk_0pt/111</t>
         </is>
       </c>
     </row>
@@ -458,6 +458,11 @@
           <t>Жіночий одяг</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/113</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -467,7 +472,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/31</t>
+          <t>https://t.me/Turk_0pt/115</t>
         </is>
       </c>
     </row>
@@ -479,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/32</t>
+          <t>https://t.me/Turk_0pt/116</t>
         </is>
       </c>
     </row>
@@ -491,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/33</t>
+          <t>https://t.me/Turk_0pt/117</t>
         </is>
       </c>
     </row>
@@ -503,7 +508,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/34</t>
+          <t>https://t.me/Turk_0pt/118</t>
         </is>
       </c>
     </row>
@@ -515,7 +520,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/35</t>
+          <t>https://t.me/Turk_0pt/119</t>
         </is>
       </c>
     </row>
@@ -527,7 +532,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/36</t>
+          <t>https://t.me/Turk_0pt/120</t>
         </is>
       </c>
     </row>

--- a/categories.xlsx
+++ b/categories.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1395" yWindow="945" windowWidth="14400" windowHeight="10755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/109</t>
+          <t>https://t.me/Turk_0pt/175</t>
         </is>
       </c>
     </row>
@@ -436,7 +436,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/110</t>
+          <t>https://t.me/Turk_0pt/176</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/111</t>
+          <t>https://t.me/Turk_0pt/177</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/113</t>
+          <t>https://t.me/Turk_0pt/179</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/115</t>
+          <t>https://t.me/Turk_0pt/181</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/116</t>
+          <t>https://t.me/Turk_0pt/182</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/117</t>
+          <t>https://t.me/Turk_0pt/183</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/118</t>
+          <t>https://t.me/Turk_0pt/184</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/119</t>
+          <t>https://t.me/Turk_0pt/185</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/120</t>
+          <t>https://t.me/Turk_0pt/186</t>
         </is>
       </c>
     </row>

--- a/categories.xlsx
+++ b/categories.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1395" yWindow="945" windowWidth="14400" windowHeight="10755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/175</t>
+          <t>https://t.me/Turk_0pt/286</t>
         </is>
       </c>
     </row>
@@ -436,7 +436,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/176</t>
+          <t>https://t.me/Turk_0pt/290</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/177</t>
+          <t>https://t.me/Turk_0pt/294</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/179</t>
+          <t>https://t.me/Turk_0pt/298</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/181</t>
+          <t>https://t.me/Turk_0pt/301</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/182</t>
+          <t>https://t.me/Turk_0pt/302</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/183</t>
+          <t>https://t.me/Turk_0pt/293</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/184</t>
+          <t>https://t.me/Turk_0pt/295</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/185</t>
+          <t>https://t.me/Turk_0pt/297</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://t.me/Turk_0pt/186</t>
+          <t>https://t.me/Turk_0pt/299</t>
         </is>
       </c>
     </row>

--- a/categories.xlsx
+++ b/categories.xlsx
@@ -1,38 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michs\Desktop\seller_bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2EDABF-30C4-42CC-A99E-7CBB7A880910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1395" yWindow="945" windowWidth="14400" windowHeight="10755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="7425" yWindow="2880" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Білизна</t>
+  </si>
+  <si>
+    <t>https://t.me/Turk_0pt/413</t>
+  </si>
+  <si>
+    <t>Дитячий одяг</t>
+  </si>
+  <si>
+    <t>https://t.me/Turk_0pt/414</t>
+  </si>
+  <si>
+    <t>Жіночий одяг</t>
+  </si>
+  <si>
+    <t>https://t.me/Turk_0pt/416</t>
+  </si>
+  <si>
+    <t>Кросівки</t>
+  </si>
+  <si>
+    <t>https://t.me/Turk_0pt/418</t>
+  </si>
+  <si>
+    <t>Спортивний одяг</t>
+  </si>
+  <si>
+    <t>https://t.me/Turk_0pt/419</t>
+  </si>
+  <si>
+    <t>Сумки</t>
+  </si>
+  <si>
+    <t>https://t.me/Turk_0pt/420</t>
+  </si>
+  <si>
+    <t>Чоловічий одяг</t>
+  </si>
+  <si>
+    <t>https://t.me/Turk_0pt/421</t>
+  </si>
+  <si>
+    <t>текстиль</t>
+  </si>
+  <si>
+    <t>https://t.me/Turk_0pt/422</t>
+  </si>
+  <si>
+    <t>Категорії</t>
+  </si>
+  <si>
+    <t>https://t.me/Turk_0pt/423</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,84 +121,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,144 +405,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="18.5703125" customWidth="1" style="2" min="1" max="1"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Білизна</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>https://t.me/Turk_0pt/286</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Взуття чоловіче</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://t.me/Turk_0pt/290</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Дитячий одяг</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://t.me/Turk_0pt/294</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Жіночий одяг</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://t.me/Turk_0pt/298</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Кросівки</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://t.me/Turk_0pt/301</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Спортивний одяг</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://t.me/Turk_0pt/302</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Сумки</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://t.me/Turk_0pt/293</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Чоловічий одяг</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://t.me/Turk_0pt/295</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>текстиль</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://t.me/Turk_0pt/297</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Категорії</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://t.me/Turk_0pt/299</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/categories.xlsx
+++ b/categories.xlsx
@@ -1,102 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michs\Desktop\seller_bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2EDABF-30C4-42CC-A99E-7CBB7A880910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="2880" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7425" yWindow="2880" windowWidth="14400" windowHeight="10755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Білизна</t>
-  </si>
-  <si>
-    <t>https://t.me/Turk_0pt/413</t>
-  </si>
-  <si>
-    <t>Дитячий одяг</t>
-  </si>
-  <si>
-    <t>https://t.me/Turk_0pt/414</t>
-  </si>
-  <si>
-    <t>Жіночий одяг</t>
-  </si>
-  <si>
-    <t>https://t.me/Turk_0pt/416</t>
-  </si>
-  <si>
-    <t>Кросівки</t>
-  </si>
-  <si>
-    <t>https://t.me/Turk_0pt/418</t>
-  </si>
-  <si>
-    <t>Спортивний одяг</t>
-  </si>
-  <si>
-    <t>https://t.me/Turk_0pt/419</t>
-  </si>
-  <si>
-    <t>Сумки</t>
-  </si>
-  <si>
-    <t>https://t.me/Turk_0pt/420</t>
-  </si>
-  <si>
-    <t>Чоловічий одяг</t>
-  </si>
-  <si>
-    <t>https://t.me/Turk_0pt/421</t>
-  </si>
-  <si>
-    <t>текстиль</t>
-  </si>
-  <si>
-    <t>https://t.me/Turk_0pt/422</t>
-  </si>
-  <si>
-    <t>Категорії</t>
-  </si>
-  <si>
-    <t>https://t.me/Turk_0pt/423</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,25 +57,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,92 +400,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
+    <col width="18.5703125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Білизна</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/469</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Дитячий одяг</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/470</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Жіночий одяг</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/472</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Кросівки</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/474</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Спортивний одяг</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/475</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/476</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Чоловічий одяг</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/477</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>текстиль</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/478</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Категорії</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/480</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Взуття</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://t.me/Turk_0pt/479</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>